--- a/project/handleCpdcData/calc/out/test.xlsx
+++ b/project/handleCpdcData/calc/out/test.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,9 @@
       <c r="F1" t="str">
         <v>总完整率</v>
       </c>
+      <c r="G1" t="str">
+        <v>缺失字段</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -411,38 +414,67 @@
         <v>吴蕊</v>
       </c>
       <c r="D2" t="str">
-        <v>73.63%</v>
+        <v>73.76%</v>
       </c>
       <c r="E2" t="str">
         <v>72.50%</v>
       </c>
       <c r="F2" t="str">
-        <v>73.44%</v>
+        <v>73.55%</v>
+      </c>
+      <c r="G2" t="str">
+        <v>有无症状#YXA_O_008,体征#YXA_O_038,肿瘤大小-高#YXA_O_049,肿瘤大小-长#YXA_O_058,肿瘤大小-宽#YXA_O_059,肿瘤大小-高#YXA_O_060,肿瘤位置#YXA_O_061,SUV#YXA_O_062,淋巴结转移#YXA_O_063,其他脏器转移#YXA_O_064,良恶性倾向#YXA_O_065,肿瘤大小-长#YXA_O_066,肿瘤大小-宽#YXA_O_067,肿瘤大小-高#YXA_O_068,肿瘤部位#YXA_O_069,回声情况#YXA_O_070,血供情况#YXA_O_071,胰管宽度#YXA_O_072,胆总管宽度#YXA_O_073,良恶性倾向#YXA_O_074,肿瘤大小-长#YXA_O_075,肿瘤大小-宽#YXA_O_076,肿瘤大小-高#YXA_O_077,肿瘤部位#YXA_O_078,血供情况#YXA_O_079,回声情况#YXA_O_080,胰管宽度#YXA_O_081,胆总管宽度#YXA_O_082,良恶性倾向#YXA_O_083,活检病理#YXA_O_084,循环肿瘤细胞CTC#YXA_O_085,血浆游离DNA检测（cf DNA）#YXA_O_086,其他检查#YXA_O_087,减黄#YXA_O_101,营养支持#YXA_O_111,其他治疗#YXA_O_148,是否输血#YXA_O_164,Ki-67#YXA_O_231,AFP#YXA_O_232,Hepatocyte#YXA_O_233,CK20#YXA_O_234,CK7#YXA_O_235,TTF1#YXA_O_236,CDX2#YXA_O_237,CK#YXA_O_238,SYN#YXA_O_239,CD56#YXA_O_240,CgA#YXA_O_241,术前检查费用#YXA_O_243,术前放化疗费用#YXA_O_244,手术费用#YXA_O_245,术后治疗费用#YXA_O_246,是否化疗#YXA_O_300,引流管1——POD3,引流管1——POD7,引流管1——AMY_POD1,引流管1——AMY_POD3,引流管1——AMY_POD7,引流管1——拔管前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>30</v>
+      </c>
+      <c r="B3" t="str">
+        <v>345465</v>
+      </c>
+      <c r="C3" t="str">
+        <v>沈寅新</v>
+      </c>
+      <c r="D3" t="str">
+        <v>74.44%</v>
+      </c>
+      <c r="E3" t="str">
+        <v>16.67%</v>
+      </c>
+      <c r="F3" t="str">
+        <v>68.83%</v>
+      </c>
+      <c r="G3" t="str">
+        <v>有无症状#YXA_O_008,其他症状#YXA_O_019,糖尿病史#YXA_O_020,其他个人史#YXA_O_031,其他家族史#YXA_O_034,其他#YXA_O_044,肿瘤大小-高#YXA_O_049,肿瘤大小-长#YXA_O_058,肿瘤大小-宽#YXA_O_059,肿瘤大小-高#YXA_O_060,肿瘤位置#YXA_O_061,SUV#YXA_O_062,淋巴结转移#YXA_O_063,其他脏器转移#YXA_O_064,良恶性倾向#YXA_O_065,肿瘤大小-高#YXA_O_068,肿瘤大小-长#YXA_O_075,肿瘤大小-宽#YXA_O_076,肿瘤大小-高#YXA_O_077,肿瘤部位#YXA_O_078,血供情况#YXA_O_079,回声情况#YXA_O_080,胰管宽度#YXA_O_081,胆总管宽度#YXA_O_082,良恶性倾向#YXA_O_083,活检病理#YXA_O_084,循环肿瘤细胞CTC#YXA_O_085,血浆游离DNA检测（cf DNA）#YXA_O_086,其他检查#YXA_O_087,术前活检#YXA_O_088,减黄#YXA_O_101,其他治疗#YXA_O_148,肿瘤大小-长#YXA_O_168,肿瘤大小-宽#YXA_O_169,肿瘤大小-高#YXA_O_170,备注#YXA_O_176,并发症CD评分#YXA_O_196,T：肿瘤侵袭深度#YXA_O_221,Ki-67#YXA_O_231,AFP#YXA_O_232,Hepatocyte#YXA_O_233,CK20#YXA_O_234,CK7#YXA_O_235,TTF1#YXA_O_236,CDX2#YXA_O_237,CK#YXA_O_238,SYN#YXA_O_239,CD56#YXA_O_240,CgA#YXA_O_241,其他#YXA_O_242,术前检查费用#YXA_O_243,术前放化疗费用#YXA_O_244,术后治疗费用#YXA_O_246,是否化疗#YXA_O_300,是否放疗#YXA_O_306,是否生物治疗#YXA_O_308,其他后续计划治疗方案#YXA_O_314,手术备注#YXA_O_907,引流管2——AMY_POD7,引流管3——AMY_POD7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>8001145956</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B4" t="str">
         <v>D94801</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C4" t="str">
         <v>张启虹</v>
       </c>
-      <c r="D3" t="str">
-        <v>82.09%</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="D4" t="str">
+        <v>82.27%</v>
+      </c>
+      <c r="E4" t="str">
         <v>87.72%</v>
       </c>
-      <c r="F3" t="str">
-        <v>83.33%</v>
+      <c r="F4" t="str">
+        <v>83.46%</v>
+      </c>
+      <c r="G4" t="str">
+        <v>有无症状#YXA_O_008,糖尿病史#YXA_O_020,体征#YXA_O_038,肿瘤大小-长#YXA_O_058,肿瘤大小-宽#YXA_O_059,肿瘤大小-高#YXA_O_060,肿瘤位置#YXA_O_061,SUV#YXA_O_062,淋巴结转移#YXA_O_063,其他脏器转移#YXA_O_064,良恶性倾向#YXA_O_065,肿瘤大小-长#YXA_O_075,肿瘤大小-宽#YXA_O_076,肿瘤大小-高#YXA_O_077,肿瘤部位#YXA_O_078,血供情况#YXA_O_079,回声情况#YXA_O_080,胰管宽度#YXA_O_081,胆总管宽度#YXA_O_082,良恶性倾向#YXA_O_083,活检病理#YXA_O_084,循环肿瘤细胞CTC#YXA_O_085,血浆游离DNA检测（cf DNA）#YXA_O_086,其他检查#YXA_O_087,营养支持#YXA_O_111,是否输血#YXA_O_164,Ki-67#YXA_O_231,AFP#YXA_O_232,Hepatocyte#YXA_O_233,CK20#YXA_O_234,CK7#YXA_O_235,TTF1#YXA_O_236,CDX2#YXA_O_237,CK#YXA_O_238,SYN#YXA_O_239,CD56#YXA_O_240,CgA#YXA_O_241,术前检查费用#YXA_O_243,术前放化疗费用#YXA_O_244,术后治疗费用#YXA_O_246,是否化疗#YXA_O_300,引流管1——拔管前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>